--- a/data-unused/wehner.cucumber.uniformity.xlsx
+++ b/data-unused/wehner.cucumber.uniformity.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\x\rpack\agridat\data-raw\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\drop\rpack\agridat\data-unused\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{06CB385D-13C9-45D4-AC5C-1767220FA2DD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C193708-4E4A-481E-A806-0F4499DEC673}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1020" yWindow="0" windowWidth="22020" windowHeight="9648" xr2:uid="{FFC0EC6F-1620-444C-984F-BBFC993F0C74}"/>
+    <workbookView xWindow="40455" yWindow="2445" windowWidth="11385" windowHeight="12195" xr2:uid="{FFC0EC6F-1620-444C-984F-BBFC993F0C74}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,10 +28,6 @@
     </ext>
   </extLst>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -85,9 +81,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -125,7 +121,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -231,7 +227,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -373,7 +369,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -387,9 +383,9 @@
       <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1">
         <v>24</v>
       </c>
@@ -409,7 +405,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>29</v>
       </c>
@@ -429,7 +425,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>20</v>
       </c>
@@ -449,7 +445,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>23</v>
       </c>
@@ -469,7 +465,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>12</v>
       </c>
@@ -489,7 +485,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>24</v>
       </c>
@@ -509,7 +505,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>25</v>
       </c>
@@ -526,7 +522,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>24</v>
       </c>
@@ -546,7 +542,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>28</v>
       </c>
@@ -563,7 +559,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>35</v>
       </c>
@@ -583,7 +579,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>16</v>
       </c>
@@ -603,7 +599,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>27</v>
       </c>
@@ -623,7 +619,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>24</v>
       </c>
@@ -637,7 +633,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>24</v>
       </c>
@@ -654,7 +650,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>28</v>
       </c>
@@ -674,7 +670,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>21</v>
       </c>
@@ -691,7 +687,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>21</v>
       </c>
@@ -711,7 +707,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>22</v>
       </c>
@@ -725,7 +721,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>21</v>
       </c>
@@ -742,7 +738,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>20</v>
       </c>
@@ -762,7 +758,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>25</v>
       </c>
@@ -782,7 +778,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>16</v>
       </c>
@@ -799,7 +795,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>21</v>
       </c>
@@ -819,7 +815,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>11</v>
       </c>
@@ -839,7 +835,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>9</v>
       </c>
@@ -869,9 +865,9 @@
       <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1">
         <v>33</v>
       </c>
@@ -900,7 +896,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>36</v>
       </c>
@@ -929,7 +925,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>43</v>
       </c>
@@ -958,7 +954,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>25</v>
       </c>
@@ -987,7 +983,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>28</v>
       </c>
@@ -1016,7 +1012,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>45</v>
       </c>
@@ -1045,7 +1041,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>44</v>
       </c>
@@ -1074,7 +1070,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>38</v>
       </c>
@@ -1103,7 +1099,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>38</v>
       </c>
@@ -1132,7 +1128,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>39</v>
       </c>
@@ -1161,7 +1157,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>31</v>
       </c>
@@ -1190,7 +1186,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>45</v>
       </c>
@@ -1219,7 +1215,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>41</v>
       </c>
@@ -1248,7 +1244,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>39</v>
       </c>
@@ -1277,7 +1273,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>35</v>
       </c>
@@ -1306,7 +1302,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>25</v>
       </c>
@@ -1335,7 +1331,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>36</v>
       </c>
